--- a/src/assets/TC_Template-Instruction.xlsx
+++ b/src/assets/TC_Template-Instruction.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27990" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TempleteTC" sheetId="2" r:id="rId1"/>
     <sheet name="TC_Templete_Instruction" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>Sl No</t>
   </si>
@@ -419,19 +419,16 @@
       </rPr>
       <t>, as incorrect values may cause errors.</t>
     </r>
+  </si>
+  <si>
+    <t>5. Make sure to delete the Instruction Sheet before uploading the data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,128 +464,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,212 +471,25 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -824,253 +512,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1078,59 +527,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1419,39 +823,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="10.2" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.8333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="4" customWidth="1"/>
     <col min="7" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.08" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="19.8333333333333" style="4" customWidth="1"/>
-    <col min="14" max="14" width="20.4133333333333" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.83333333333333" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.58" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9.66666666666667" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="4" customWidth="1"/>
     <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:20">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1513,15 +917,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="5:5">
+    <row r="2" spans="1:20">
       <c r="E2" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>"city,village"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>111111111</formula1>
       <formula2>9999999999</formula2>
     </dataValidation>
@@ -1530,24 +934,22 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.7" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="31.7" customWidth="1"/>
-    <col min="4" max="4" width="55.3" customWidth="1"/>
-    <col min="5" max="16384" width="31.7" customWidth="1"/>
+    <col min="1" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1924,33 +1326,38 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" ht="30" customHeight="1" spans="1:1">
+    <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" ht="30" customHeight="1" spans="1:1">
+    <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" ht="30" customHeight="1" spans="1:1">
+    <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" ht="30" customHeight="1" spans="1:1">
+    <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>